--- a/medicine/Mort/Ancien_cimetière_catholique_de_Dresde/Ancien_cimetière_catholique_de_Dresde.xlsx
+++ b/medicine/Mort/Ancien_cimetière_catholique_de_Dresde/Ancien_cimetière_catholique_de_Dresde.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ancien_cimeti%C3%A8re_catholique_de_Dresde</t>
+          <t>Ancien_cimetière_catholique_de_Dresde</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'ancien cimetière catholique (en allemand : Alter Katholischer Friedhof) est l'un des cimetières les plus anciens de Dresde, en Saxe. Il se situe dans le quartier de Friedrichstadt, sur la rive gauche de l'Elbe. Ce cimetière fut fondé sous le règne d'Auguste le Fort en 1720-1721, souverain catholique d'un pays protestant, l'Électorat de Saxe, et fut motivé par le mariage de son fils, Frédéric-Auguste II avec l'archiduchesse Marie-Josèphe.
 Le cimetière se situait à l'époque en dehors des murs de la ville, puisque la loi saxonne défendait aux non-protestants d'être enterrés à proximité de ceux-ci. Il était destiné à abriter les dépouilles des catholiques de la noblesse locale, ou celles de catholiques venus d'autres États allemands, ainsi que d'Italie et de France. Beaucoup de membres de la noblesse polonaise, après les soulèvements de 1830-1831 y sont aussi enterrés. Au début il était interdit de construire des chapelles privées ou une église.
